--- a/Precedenční tabulka.xlsx
+++ b/Precedenční tabulka.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jankl\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jankl\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF817FCD-B110-49BD-B4E5-78CC98B7C30B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE1A85D-CAB8-42A1-B32B-85E38120FF9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="4290" windowWidth="28800" windowHeight="15435" xr2:uid="{0233EA86-695C-404E-ADA5-86F730DF2AE2}"/>
+    <workbookView xWindow="-23790" yWindow="21165" windowWidth="28800" windowHeight="15435" xr2:uid="{0233EA86-695C-404E-ADA5-86F730DF2AE2}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="11">
   <si>
     <t xml:space="preserve">+- </t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>=</t>
+  </si>
+  <si>
+    <t>=!=&gt;=&lt;=&gt;&lt;</t>
   </si>
 </sst>
 </file>
@@ -348,7 +351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -394,6 +397,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -711,19 +720,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E027D297-4B57-4633-A788-600127BF64FC}">
-  <dimension ref="B1:H8"/>
+  <dimension ref="B1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="8" width="8" customWidth="1"/>
+    <col min="2" max="9" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="10"/>
       <c r="C2" s="11" t="s">
         <v>6</v>
@@ -737,14 +746,17 @@
       <c r="F2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="I2" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
         <v>0</v>
       </c>
@@ -761,13 +773,16 @@
         <v>7</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
         <v>1</v>
       </c>
@@ -784,13 +799,16 @@
         <v>7</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
         <v>2</v>
       </c>
@@ -809,9 +827,12 @@
       <c r="G5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="6"/>
+      <c r="H5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
         <v>3</v>
       </c>
@@ -825,48 +846,81 @@
       <c r="F6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="6" t="s">
+      <c r="G6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
+    <row r="7" spans="2:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="6" t="s">
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="16" t="s">
+    <row r="9" spans="2:9" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="9"/>
+      <c r="C9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
